--- a/Data/gmm_sector_averages.xlsx
+++ b/Data/gmm_sector_averages.xlsx
@@ -14125,9 +14125,7 @@
           <t>300017 - Morafco Industries Ltd.</t>
         </is>
       </c>
-      <c r="E636" t="n">
-        <v>19.88456231159238</v>
-      </c>
+      <c r="E636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
